--- a/Documentations/Data_Source_List_日本語_v3.3.xlsx
+++ b/Documentations/Data_Source_List_日本語_v3.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qliktechnologies365-my.sharepoint.com/personal/amo_qlik_com/Documents/Documents/GitHub/Qlik_SAP_Accelerators_For_QDI/Documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{AA4868D6-6CCF-4F24-9F5F-C426523F1864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3029F4B5-0D40-4B36-BA08-2AB75A6ED53A}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{AA4868D6-6CCF-4F24-9F5F-C426523F1864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEC7B374-05DB-402D-A99F-97CD36D09CB3}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="210" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{35D0DF68-4C88-4D71-9D2B-AF545C1DDC9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{35D0DF68-4C88-4D71-9D2B-AF545C1DDC9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Order to Cash" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">All!$A$1:$H$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Finance!$A$1:$I$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Inventory!$A$1:$I$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Order to Cash'!$A$1:$I$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Procurement!$A$1:$I$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Finance!$A$1:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Inventory!$A$1:$J$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Order to Cash'!$A$1:$J$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Procurement!$A$1:$J$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="396">
   <si>
     <t>Full / Delta</t>
   </si>
@@ -556,10 +556,6 @@
   </si>
   <si>
     <t>ABR1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2LIS_03_BX</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1293,15 +1289,9 @@
     <t>SAP-R/3 -&gt; FI -&gt; FI-AA - &gt; FI-AA-IO</t>
   </si>
   <si>
-    <t>FAGL_011QT</t>
-  </si>
-  <si>
     <t>ZFAGL_011PC</t>
   </si>
   <si>
-    <t>FAGL_011ZC</t>
-  </si>
-  <si>
     <t>財務諸表構造: 財務諸表構造の明細</t>
   </si>
   <si>
@@ -1420,6 +1410,15 @@
   </si>
   <si>
     <t>Inventory Revaluations</t>
+  </si>
+  <si>
+    <t>ZSP_STOCK_IND</t>
+  </si>
+  <si>
+    <t>ZPUR_DOCTYPE_TEXT</t>
+  </si>
+  <si>
+    <t>Query</t>
   </si>
 </sst>
 </file>
@@ -1685,9 +1684,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1725,7 +1724,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1831,7 +1830,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1973,7 +1972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1981,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA63AFC-DEA2-4600-8592-D582621CDE75}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1999,21 +1998,21 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>208</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>0</v>
@@ -2027,19 +2026,22 @@
       <c r="I1" s="21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>101</v>
@@ -2054,19 +2056,20 @@
       <c r="I2" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>101</v>
@@ -2079,19 +2082,22 @@
         <v>36</v>
       </c>
       <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>101</v>
@@ -2104,8 +2110,11 @@
         <v>36</v>
       </c>
       <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -2131,8 +2140,9 @@
       <c r="I5" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -2158,13 +2168,14 @@
       <c r="I6" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>28</v>
@@ -2185,8 +2196,9 @@
       <c r="I7" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -2212,8 +2224,9 @@
       <c r="I8" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -2239,8 +2252,11 @@
       <c r="I9" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -2264,8 +2280,11 @@
         <v>36</v>
       </c>
       <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -2289,8 +2308,11 @@
         <v>36</v>
       </c>
       <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -2314,13 +2336,14 @@
         <v>36</v>
       </c>
       <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>11</v>
@@ -2341,8 +2364,9 @@
       <c r="I13" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -2368,8 +2392,9 @@
       <c r="I14" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -2395,13 +2420,14 @@
       <c r="I15" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>5</v>
@@ -2422,13 +2448,14 @@
       <c r="I16" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>1</v>
@@ -2449,8 +2476,9 @@
       <c r="I17" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -2476,8 +2504,9 @@
       <c r="I18" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -2503,8 +2532,9 @@
       <c r="I19" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -2530,8 +2560,9 @@
       <c r="I20" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -2557,8 +2588,9 @@
       <c r="I21" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -2584,8 +2616,9 @@
       <c r="I22" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -2611,8 +2644,9 @@
       <c r="I23" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -2638,8 +2672,9 @@
       <c r="I24" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -2665,8 +2700,9 @@
       <c r="I25" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -2692,19 +2728,20 @@
       <c r="I26" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>385</v>
-      </c>
       <c r="D27" s="18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>80</v>
@@ -2717,19 +2754,22 @@
         <v>36</v>
       </c>
       <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C28" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>384</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>387</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>80</v>
@@ -2742,8 +2782,11 @@
         <v>36</v>
       </c>
       <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -2767,8 +2810,11 @@
         <v>36</v>
       </c>
       <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -2792,19 +2838,22 @@
         <v>36</v>
       </c>
       <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="16">
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>80</v>
@@ -2817,8 +2866,11 @@
         <v>36</v>
       </c>
       <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -2842,8 +2894,11 @@
         <v>36</v>
       </c>
       <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="1:9" s="2" customFormat="1">
+      <c r="J32" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="2" customFormat="1">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -2867,8 +2922,9 @@
         <v>36</v>
       </c>
       <c r="I33" s="18"/>
-    </row>
-    <row r="34" spans="1:9" s="2" customFormat="1">
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" s="2" customFormat="1">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -2876,7 +2932,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>72</v>
@@ -2890,8 +2946,9 @@
         <v>36</v>
       </c>
       <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:9" s="2" customFormat="1">
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" s="2" customFormat="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2901,56 +2958,57 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" s="2" customFormat="1">
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:10" s="2" customFormat="1">
+      <c r="A37" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="2" customFormat="1">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="2" customFormat="1">
+    </row>
+    <row r="38" spans="1:10" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="2" customFormat="1">
+      <c r="A39" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:10" s="2" customFormat="1">
+      <c r="A40" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:10" s="2" customFormat="1">
+      <c r="A41" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1">
-      <c r="A41" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1">
+    <row r="42" spans="1:10" s="2" customFormat="1">
       <c r="A42" s="2" t="s">
         <v>33</v>
       </c>
@@ -2958,76 +3016,76 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="2" customFormat="1">
+    <row r="43" spans="1:10" s="2" customFormat="1">
       <c r="A43" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:10" s="2" customFormat="1">
+      <c r="A44" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="2" customFormat="1">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B44" s="2" t="s">
+    </row>
+    <row r="45" spans="1:10" s="2" customFormat="1">
+      <c r="A45" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="2" customFormat="1">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:10" s="2" customFormat="1">
+      <c r="A46" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="2" customFormat="1">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B46" s="2" t="s">
+    </row>
+    <row r="47" spans="1:10" s="2" customFormat="1">
+      <c r="A47" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" s="2" customFormat="1">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B47" s="2" t="s">
+    </row>
+    <row r="48" spans="1:10" s="2" customFormat="1">
+      <c r="A48" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="2" customFormat="1">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="2" customFormat="1">
       <c r="A49" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="2" customFormat="1">
       <c r="A50" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="2" customFormat="1">
       <c r="A51" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1">
@@ -3035,15 +3093,11 @@
         <v>24</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I32" xr:uid="{6CA63AFC-DEA2-4600-8592-D582621CDE75}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I35">
-      <sortCondition ref="E1:E32"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J34" xr:uid="{6CA63AFC-DEA2-4600-8592-D582621CDE75}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3052,10 +3106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CFF8A4-B7BC-43A6-8B98-38E2623B1AA7}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.28515625" defaultRowHeight="14.25"/>
@@ -3068,25 +3122,25 @@
     <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="21.28515625" style="2"/>
+    <col min="9" max="10" width="8.42578125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="21.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>0</v>
@@ -3100,8 +3154,11 @@
       <c r="I1" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3112,7 +3169,7 @@
         <v>109</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>110</v>
@@ -3125,19 +3182,20 @@
         <v>36</v>
       </c>
       <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>110</v>
@@ -3152,19 +3210,22 @@
       <c r="I3" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>104</v>
@@ -3177,19 +3238,20 @@
         <v>36</v>
       </c>
       <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>104</v>
@@ -3202,19 +3264,20 @@
         <v>36</v>
       </c>
       <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>135</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>136</v>
@@ -3227,19 +3290,22 @@
         <v>36</v>
       </c>
       <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1">
+      <c r="J6" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>130</v>
@@ -3254,19 +3320,20 @@
       <c r="I7" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" customHeight="1">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>131</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>130</v>
@@ -3281,19 +3348,22 @@
       <c r="I8" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>101</v>
@@ -3306,19 +3376,20 @@
         <v>36</v>
       </c>
       <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>101</v>
@@ -3331,8 +3402,11 @@
         <v>36</v>
       </c>
       <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -3343,7 +3417,7 @@
         <v>124</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>101</v>
@@ -3356,8 +3430,9 @@
         <v>36</v>
       </c>
       <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -3383,8 +3458,9 @@
       <c r="I12" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -3410,19 +3486,20 @@
       <c r="I13" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>117</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>113</v>
@@ -3437,8 +3514,9 @@
       <c r="I14" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -3464,8 +3542,9 @@
       <c r="I15" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -3491,8 +3570,11 @@
       <c r="I16" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -3503,7 +3585,7 @@
         <v>126</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>113</v>
@@ -3516,8 +3598,9 @@
         <v>36</v>
       </c>
       <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -3528,7 +3611,7 @@
         <v>128</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>113</v>
@@ -3541,19 +3624,20 @@
         <v>36</v>
       </c>
       <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>142</v>
@@ -3566,19 +3650,20 @@
         <v>36</v>
       </c>
       <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" customHeight="1">
       <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>141</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>142</v>
@@ -3593,44 +3678,46 @@
       <c r="I20" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>142</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>142</v>
@@ -3645,8 +3732,9 @@
       <c r="I22" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -3657,7 +3745,7 @@
         <v>118</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>119</v>
@@ -3670,8 +3758,11 @@
         <v>36</v>
       </c>
       <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -3682,7 +3773,7 @@
         <v>120</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>119</v>
@@ -3695,19 +3786,22 @@
         <v>36</v>
       </c>
       <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>132</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>119</v>
@@ -3720,19 +3814,22 @@
         <v>36</v>
       </c>
       <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>133</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>119</v>
@@ -3745,19 +3842,22 @@
         <v>36</v>
       </c>
       <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>134</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>119</v>
@@ -3770,19 +3870,20 @@
         <v>36</v>
       </c>
       <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>119</v>
@@ -3797,19 +3898,20 @@
       <c r="I28" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>139</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>119</v>
@@ -3824,8 +3926,9 @@
       <c r="I29" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -3836,7 +3939,7 @@
         <v>121</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>122</v>
@@ -3849,19 +3952,22 @@
         <v>36</v>
       </c>
       <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="16">
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16" t="s">
@@ -3872,21 +3978,22 @@
         <v>36</v>
       </c>
       <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3894,31 +4001,31 @@
         <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3931,74 +4038,74 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4006,15 +4113,11 @@
         <v>24</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I31" xr:uid="{E2CFF8A4-B7BC-43A6-8B98-38E2623B1AA7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I31">
-      <sortCondition ref="E1:E31"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J31" xr:uid="{E2CFF8A4-B7BC-43A6-8B98-38E2623B1AA7}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4023,10 +4126,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE96B8FB-2046-4612-B3AC-21580330EA1F}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4039,23 +4142,23 @@
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="2" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="16.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5">
+    <row r="1" spans="1:11" ht="28.5">
       <c r="A1" s="15"/>
       <c r="B1" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>0</v>
@@ -4070,21 +4173,24 @@
         <v>35</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>245</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>101</v>
@@ -4098,22 +4204,25 @@
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>156</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>3</v>
@@ -4128,22 +4237,23 @@
       <c r="J3" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>158</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>18</v>
@@ -4156,22 +4266,25 @@
       <c r="J4" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>160</v>
-      </c>
       <c r="D5" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>18</v>
@@ -4182,22 +4295,23 @@
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>75</v>
@@ -4210,22 +4324,23 @@
         <v>36</v>
       </c>
       <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>164</v>
-      </c>
       <c r="D7" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>18</v>
@@ -4236,22 +4351,25 @@
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>166</v>
-      </c>
       <c r="D8" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>18</v>
@@ -4262,8 +4380,9 @@
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -4274,7 +4393,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>101</v>
@@ -4288,19 +4407,20 @@
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>101</v>
@@ -4314,19 +4434,22 @@
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>103</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>104</v>
@@ -4340,22 +4463,23 @@
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>105</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>18</v>
@@ -4366,19 +4490,20 @@
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>106</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>101</v>
@@ -4392,19 +4517,20 @@
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>101</v>
@@ -4418,8 +4544,11 @@
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -4430,7 +4559,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>110</v>
@@ -4444,19 +4573,20 @@
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>110</v>
@@ -4472,19 +4602,22 @@
         <v>36</v>
       </c>
       <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>104</v>
@@ -4500,25 +4633,26 @@
         <v>36</v>
       </c>
       <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>174</v>
-      </c>
       <c r="D18" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>104</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16" t="s">
@@ -4526,8 +4660,11 @@
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -4554,8 +4691,9 @@
         <v>36</v>
       </c>
       <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -4582,22 +4720,23 @@
         <v>36</v>
       </c>
       <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>18</v>
@@ -4608,22 +4747,25 @@
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>179</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>3</v>
@@ -4638,22 +4780,23 @@
       <c r="J22" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>181</v>
-      </c>
       <c r="D23" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>3</v>
@@ -4668,22 +4811,23 @@
       <c r="J23" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="D24" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>184</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>3</v>
@@ -4696,8 +4840,9 @@
         <v>36</v>
       </c>
       <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -4705,13 +4850,13 @@
         <v>46</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>3</v>
@@ -4724,103 +4869,107 @@
         <v>36</v>
       </c>
       <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="17.25" customHeight="1">
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" ht="17.25" customHeight="1">
       <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>303</v>
-      </c>
       <c r="D26" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17" t="s">
         <v>36</v>
       </c>
       <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>187</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17" t="s">
         <v>36</v>
       </c>
       <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>189</v>
-      </c>
       <c r="D28" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17" t="s">
         <v>36</v>
       </c>
       <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>101</v>
@@ -4836,19 +4985,20 @@
         <v>36</v>
       </c>
       <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>116</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>101</v>
@@ -4862,22 +5012,25 @@
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="16">
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>3</v>
@@ -4890,22 +5043,23 @@
         <v>36</v>
       </c>
       <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="17"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>131</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>3</v>
@@ -4918,22 +5072,25 @@
         <v>36</v>
       </c>
       <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="16">
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>195</v>
-      </c>
       <c r="D33" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
@@ -4944,22 +5101,23 @@
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>197</v>
-      </c>
       <c r="D34" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>18</v>
@@ -4970,19 +5128,22 @@
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="16">
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>137</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>119</v>
@@ -4998,19 +5159,20 @@
         <v>36</v>
       </c>
       <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" s="17"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>139</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>119</v>
@@ -5026,34 +5188,36 @@
         <v>36</v>
       </c>
       <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" s="17"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="16">
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>199</v>
-      </c>
       <c r="D37" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="17" t="s">
         <v>36</v>
       </c>
       <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" s="17"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -5061,7 +5225,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>72</v>
@@ -5076,19 +5240,20 @@
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="16">
         <v>38</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="16" t="s">
@@ -5100,19 +5265,20 @@
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" s="17"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16" t="s">
@@ -5124,19 +5290,20 @@
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" s="17"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16" t="s">
@@ -5148,8 +5315,9 @@
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" s="17"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
@@ -5160,53 +5328,54 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K42" s="14"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B44" s="2" t="s">
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B47" s="2" t="s">
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5219,74 +5388,74 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5294,50 +5463,46 @@
         <v>24</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I38" xr:uid="{6CA63AFC-DEA2-4600-8592-D582621CDE75}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I38">
-      <sortCondition ref="B1:B38"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:K41" xr:uid="{FE96B8FB-2046-4612-B3AC-21580330EA1F}"/>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="A68" r:id="rId1" xr:uid="{5C2F3883-8135-4C59-BC0E-A8B8FEE4B90F}"/>
@@ -5349,10 +5514,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE1BC69-ED35-49BA-85D5-1C8C38BE75C7}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5365,27 +5530,26 @@
     <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="8.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>0</v>
@@ -5399,83 +5563,91 @@
       <c r="I1" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>153</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>104</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -5483,41 +5655,42 @@
         <v>108</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>112</v>
@@ -5526,25 +5699,28 @@
       <c r="I6" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>184</v>
-      </c>
       <c r="F7" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>45</v>
@@ -5553,8 +5729,9 @@
       <c r="I7" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -5571,7 +5748,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>114</v>
@@ -5580,8 +5757,9 @@
       <c r="I8" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -5598,7 +5776,7 @@
         <v>113</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>114</v>
@@ -5607,8 +5785,11 @@
       <c r="I9" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -5619,21 +5800,24 @@
         <v>118</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>119</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -5644,21 +5828,24 @@
         <v>120</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>119</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -5669,21 +5856,24 @@
         <v>121</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>122</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -5694,21 +5884,22 @@
         <v>126</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>113</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -5719,38 +5910,39 @@
         <v>128</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>113</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>112</v>
@@ -5759,25 +5951,26 @@
       <c r="I15" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>131</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>112</v>
@@ -5786,75 +5979,78 @@
       <c r="I16" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>119</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>119</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>137</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>138</v>
@@ -5863,25 +6059,26 @@
       <c r="I19" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>43</v>
@@ -5890,25 +6087,26 @@
       <c r="I20" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>43</v>
@@ -5917,25 +6115,26 @@
       <c r="I21" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>43</v>
@@ -5944,25 +6143,26 @@
       <c r="I22" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>43</v>
@@ -5971,25 +6171,26 @@
       <c r="I23" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>43</v>
@@ -5998,25 +6199,26 @@
       <c r="I24" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>43</v>
@@ -6025,25 +6227,26 @@
       <c r="I25" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C26" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>272</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>273</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>43</v>
@@ -6052,25 +6255,26 @@
       <c r="I26" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>43</v>
@@ -6079,90 +6283,94 @@
       <c r="I27" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I28" s="16"/>
-    </row>
-    <row r="29" spans="1:9" ht="24">
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" ht="24">
       <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I30" s="16"/>
-    </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" ht="14.25">
+      <c r="J30" s="16"/>
+    </row>
+    <row r="32" spans="1:10" s="2" customFormat="1" ht="14.25">
       <c r="A32" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="2" customFormat="1" ht="14.25">
       <c r="A33" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="2" customFormat="1" ht="14.25">
@@ -6170,31 +6378,31 @@
         <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="2" customFormat="1" ht="14.25">
       <c r="A35" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="2" customFormat="1" ht="14.25">
       <c r="A36" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="2" customFormat="1" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="2" customFormat="1" ht="14.25">
@@ -6207,74 +6415,74 @@
     </row>
     <row r="39" spans="1:2" s="2" customFormat="1" ht="14.25">
       <c r="A39" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="2" customFormat="1" ht="14.25">
       <c r="A40" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="2" customFormat="1" ht="14.25">
       <c r="A41" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="2" customFormat="1" ht="14.25">
       <c r="A42" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="2" customFormat="1" ht="14.25">
       <c r="A43" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="2" customFormat="1" ht="14.25">
       <c r="A44" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="2" customFormat="1" ht="14.25">
       <c r="A45" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="2" customFormat="1" ht="14.25">
       <c r="A46" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="2" customFormat="1" ht="14.25">
       <c r="A47" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="2" customFormat="1" ht="14.25">
@@ -6282,11 +6490,11 @@
         <v>24</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I30" xr:uid="{FCE1BC69-ED35-49BA-85D5-1C8C38BE75C7}"/>
+  <autoFilter ref="A1:J30" xr:uid="{FCE1BC69-ED35-49BA-85D5-1C8C38BE75C7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I30">
     <sortCondition ref="B2:B30"/>
   </sortState>
@@ -6300,8 +6508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344D9DAD-F9DB-49D3-8BB6-56B5B644B394}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6319,28 +6527,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6351,103 +6559,103 @@
         <v>109</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>104</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>104</v>
@@ -6455,19 +6663,19 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>104</v>
@@ -6475,318 +6683,318 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="C14" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="C18" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="C19" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="C20" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="C21" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6794,105 +7002,105 @@
         <v>46</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="C24" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="C26" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="C27" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6903,7 +7111,7 @@
         <v>100</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>101</v>
@@ -6911,19 +7119,19 @@
       <c r="E28" s="9"/>
       <c r="F28" s="8"/>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>101</v>
@@ -6931,95 +7139,95 @@
       <c r="E29" s="9"/>
       <c r="F29" s="8"/>
       <c r="G29" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H33" s="9"/>
     </row>
@@ -7031,14 +7239,14 @@
         <v>124</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -7057,13 +7265,13 @@
         <v>113</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H35" s="9"/>
     </row>
@@ -7081,32 +7289,32 @@
         <v>113</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>117</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -7125,14 +7333,14 @@
         <v>76</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7149,14 +7357,14 @@
         <v>76</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7167,18 +7375,18 @@
         <v>126</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7189,196 +7397,196 @@
         <v>128</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="C50" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -7391,56 +7599,56 @@
         <v>141</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="C52" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="8"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7457,14 +7665,14 @@
         <v>79</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7481,25 +7689,25 @@
         <v>79</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>119</v>
@@ -7508,18 +7716,18 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>119</v>
@@ -7528,112 +7736,112 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>119</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>119</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>119</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>119</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H62" s="9"/>
     </row>
@@ -7651,7 +7859,7 @@
         <v>77</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
@@ -7671,7 +7879,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
@@ -7691,7 +7899,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
@@ -7711,7 +7919,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -7719,7 +7927,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>5</v>
@@ -7731,7 +7939,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
@@ -7751,7 +7959,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
@@ -7771,7 +7979,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -7791,7 +7999,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -7811,7 +8019,7 @@
         <v>2</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -7831,7 +8039,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -7851,7 +8059,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -7871,7 +8079,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -7891,7 +8099,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -7911,7 +8119,7 @@
         <v>2</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -7931,7 +8139,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -7951,14 +8159,14 @@
         <v>80</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7975,7 +8183,7 @@
         <v>80</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -7995,7 +8203,7 @@
         <v>80</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -8015,7 +8223,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -8023,13 +8231,13 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>385</v>
-      </c>
       <c r="C82" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>80</v>
@@ -8043,13 +8251,13 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>387</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>80</v>
@@ -8063,13 +8271,13 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>80</v>
@@ -8083,150 +8291,150 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="C85" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H85" s="9"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="9" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H86" s="9"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="9" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H87" s="9"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H88" s="9"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="8" t="s">
-        <v>300</v>
+        <v>394</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="7" t="s">
-        <v>149</v>
+        <v>393</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="9"/>
       <c r="F91" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="7" t="s">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
